--- a/Donnees/topic_info.xlsx
+++ b/Donnees/topic_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,91 +462,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_artistic_association_centre_de</t>
+          <t>0_de_et_la_des</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['artistic', 'association', 'centre', 'de', 'family', 'creation', 'create', 'practice', 'area', 'production']</t>
+          <t>['de', 'et', 'la', 'des', 'le', 'en', 'un', 'les', 'une', 'est']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['open september shed independent centre locate near rouen paris minute mont saint aignan locate old shopping mall typical industrial building century shed offer exposure extent site architecture factory build period free plan power power structure ceiling height meter bridge meter factory volume exceptional region site normandy offer allow consider presentation large piece create manage group curator shed private initiative building co ownership pierre ardouvin anne brégeaut jean paul berrenger julie faitot jonathan loppin aurele orion bruno peinado co owner building choose half area available development centre shed association act chair french anita molinero honorary president christian bernard founder director mamco geneva current director prince september toulouse area area residence workshop accommodation hosted workshop private storage scope site commitment curator independence centre enable consider ambitious invitation internationally france emerge want develop axis proposal year offer time research experimentation adapt rhythm year', 'glassbox non lucratic association aim promote emerge creation manage allow young access specific visibility stage offer hybrid production dissemination format create young graduate beaux arts paris decide build context glassbox year street ceberkamp office resident international university city paris foundation avicienne sign claude parent andré bloc end glassbox neighborhood month direction freak free architect glassbox open street moret office compose stefan nikolaev fredéric beaumas beaziat michel delaquis laurence laurence andré blocern henry blocer glassbox build activity program allow execution production format exhibit number object offer team experience time team glassbox seek exuse form object direction heterogeneous time proposal crisis performance glassbox question way creative process meditation impose obstacle tool design break structure glazing object invite stéphane despax join glassbox probably release beaux arts busy duo emilie schalck popular concert restaurant montpellier baloard organize large demonstration ensp national school paysage king potager versaille laab association botanique association found idea study bring visibility botanical area montpellier balloon organize large demonstration royal school school versaille organize large demonstration king palace latage botanique association idea attend year term year old old old old old old old exchange different actor like séverine marguin research paris berlin brazilian commissioner fabiana de moraes run brazil tape run like time day wait write story', 'p pioneer initiative artistic self management spain locate center madrid set new training production model introduce method manage resource collaboration explore country p spanish alternative active p result performance polival political trajectory present performance alternative polival present center audiovisual independent experimenting initiative non formal learning extracademic production meeting exchange experience knowledge participate practice locate ancient monastery nuñez de la arpaza sancutas de la gâteaus gâteaus de la gâtétas de las de las de lasação de lasátétés de las de lasaciación de lasás de lasionale de las de lasionale de las de lasionale de lasionale de las de las de las de lasación espacio p benchmark alternative self organise madrid launch direct multimedia pedro garhel tenerife develop collaborative dynamic research training production implement use share resource mean diffusion remain practically unexplored time hybrid structure result opening merge different artistic concept field cross traditional limit stage laboratory research production aim explore edge visual performance sound different practice language link sharing single multiple function programme inclusive socially engaging create community synonymous life share experience espacio p organise kind activity relate performance photography installation visual poetry postal film video experimental music electronic virtual reality time majority gallery museum celebrate resurgence remarkable trajectory activity espacio p relate thematic hub culture fluxus punk action audiovisual language gender question intervention public transition analog era digital culture overall aim focus attention artistic practice face challenge globalisation culture production market addition practice tackle alternative impact media power construction new individual collective identity period transition post industrial society']</t>
+          <t>['du siège une ancienne menuiserie de datant du début du siècle se compose au rez de chaussée galerie de à de atelier qui accueillent de artiste vivant dans valenciennoise atelier logement pour en résidence créée en à de sa première exposition acte de naissance pour vocation de produire et de révéler sur la culturelle et artistique une création actuelle en plastique elle pour mission permettre aux plasticiens de confronter leur travaux à un sensibiliser un plus large public peu habitué à soutenir accompagner et stimuler la favoriser la circulation des à les activités de naissance consistent essentiellement à organiser des exposition à travers la région nord pas de calais à partir de investit le champ européen avec des exposition en angleterre en italie et en belgique la dernière exposition itinérante passe par du siège en mai et juin pour de la galerie au même moment atelier permanent sont aménagés à depuis gère la galerie atelier du siège avec une programmation de quatre exposition par début elle devient propriétaire des lieux voit la construction de logement dan la cour et la mise en politique de trois résidence par professionnalise la structure avec la création de plusieur emplois en elle signe une nouvelle convention triennale avec la ville de valencienne la région nord pas de calais et le ministère de la culture acte de naissance est adhèrente du réseau fraap fédération des réseaux et association plasticien et de nord réseau contemporain du nord pas de calais et de la galerieau rythme de quatre exposition par acte de naissance concentre son énergie à soutenir la création contemporaine en devenir la rencontre dans un même temp de et de en atelier est une dimension essentielle de menée par deux principaux module ont retenu des organisateur les exposition duo qui permettent à deux artiste aux préoccupation artistique similaire de se rencontrer et une confrontation de leurs les exposition parcour qui consistent en la présentation seul artiste regroupant plusieur années de travail de manière à mettre en évidence de son œuvre le atelierscinq atelier situés à juste au dessus de la galerie insufflent une dynamique de création qui illustre le souci constant des organisateur de comprendre et alor même logementcréé en logement répond au souhait de de mettre en une politique deux modules sont la grande résidence elle accueille un artiste pendant trois mois entre septembre et décembre celui ci reçoit une bourse de production pour la réalisation de ses œuvre et une bourse de recherche cette résidence e finalisée par une exposition dans la galerie du siège en janvier et févri de suivante les résidence coup de pouce elle sont réservées aux jeune artiste il y en deux par durée de trois mois de janvier à mar et à juin reçoit une bourse de production pour la réalisation de ses œuvre et une bourse de peut faire une présentation publique de son travail en atelier en fin de résidence un coup de pouce à la production en quelque sorte pour de jeune artiste se trouvant démunis et de moyens', 'glassbox est une association à non lucratif qui vise à promouvoir la création contemporaine émergente en arts gérée par des artiste elle permet à de jeunes créateur à une visibilité spécifique à chaque démarche et oeuvre à proposer des formats hybrides de production et de diffusion de contemporain créée en par de jeunes diplômés issus des beaux arts de paris et décidés à construire ensemble leur propre contexte glassbox tire son nom de occupe pendant dix ans rue oberkampf en le bureau est en résidence à la cité internationale universitaire de paris travaillant à de nombreux projet autour de la fondation avicenne signée claude parent et andré bloc fin glassbox est de retour dan le quarti et après plusieur mois de travaux sous la direction des freak free architect inaugure du rue moret depuis bureau été composé de stefan nikolaev frédéric beaume michel beziat laurence delaquis stéphane doré jan kopp gemma shedden sandie tourle pierre beloüin julia rometti eric frost tabuchi sophie bernhard solenn morel julien fronsacq géraldine longueville sophie grall olivi babin sylvain rousseau yann rondeau elfi turpin dominique blais thomas barbey john lalor collectif anne couzon cesca françois et arnaud bernus nicolas tilly oriol nogue fabrice panichi nicolas juillard aleksandra jatczak sabrina moura levente polyak nayoung violette bonnebas marlène renaud bouchard andrea giger christelle mas yumi lee emilie schalck stéphane despax glassbox construit son activité autour programme permettant la réalisation de format de production plutôt que un certain nombre afin aux artiste et à de voir dan le même temps et le même espace le œuvre se faire et être là de glassbox cherche à épuiser les form de exposition de là se dégagent plusieurs direction aux temporalités hétérogènes comme autant de proposition mettant en crise le rapport entre projet et rendu glassbox avant tout sur les modalités du processus créatif se pose avant tout comme une médiation entre et son œuvre en imposant des contraintes des direction ou des interrogation il est plus un dispositif déjà présent et avec lequel il faut travailler plutôt structure ainsi glassbox meet en action ses propre compétence au service projet aura sélectionné et déterminé en imposant des contraintes un protocole ou des choix dans un dialogue bienveillant et critique avec aussi la production de importe ainsi autant que le rendu terminal le processus de la création le faire lui même qui est au cœur des enjeux que tentent de définir glassbox été invitée par stéphane despax à rejoindre glassbox en surement en partie parce que depuis ma sortie des beaux arts je occupée en duo avec emilie schalck espace dans un restaurant concert assez populaire à à montpellier le baloard puis une grande manifestation à école nationale supérieure du paysage au potager du roi à versaille avec laab laboratoire associatif et de botanique que fondé en était de fédérer et apporter une visibilité sur la recherche dans les domaines de et de la botanique étant issue famille de collectionneur de plante encore une grande sensibilité à la diversité végétale et à perpétuation et conservation du patrimoine vivant une partie de mes activités consiste aux soin à apporter à plus de espèce de plant sur un terrain de de terrain avec serre que cette sensibilité toujour été présente dans ma façon de voir et les chose une acuité à la recherche et une appréciation des singularités cela étant dit avec émilie notre arrivée à glassbox est placée sous le signe du hors sol à la cité universitaire se termine en et nous adopton de glassbox hor sol dénomination à laquelle je propose épiphyte qui correspond pour moi à une existence complémentaire et non parasite du concept de rhizome de deleuze qui pour ma pour la prend des rhizome plus rien ne peut exister les épiphytes sont des plant de la famille des broméliacées de elle se développent sur la hauteur des forêts humide américaine là où les rayon du soleil peuvent les atteindre ce sont également des plant qui génèrent un milieu de vie locale en proposant en leur cœur à animaux et végétaux de petite réserve dès les années avec stéphane et émilie nous commençon assez vite à déplacer et incorporer glassbox dans différente typology de lieux partenaire du collectif nous avon hérités du format des acteur autonome un format de travail qui nous invite à nous calibrer au projet de un projet qui se réalise lui même la plupart du temp hor les mur tout en gardant ce format nous avon choisi de travailler de façon assez organique en articulant trois problématiques assez proche des sensibilités de chacun un après seule avec émilie nous étion harassé par le rythme soutenu des propositions et les adaptation à mettre en dû au fait que nous intervenion dans des espaces aux contrainte chaque fois différente assez vite nous avon discuté de la possibilité de trouver un nouveau lieu et à partir duquel nous pourrion redéployer le proposition cette époque le local vitré du sous sol de la poste de la rue oberkampf été disponible ça nous fait hésiter mais assez rapidement le local été loué et à m plus loin que nous avon finalement élu domicile depuis le début nous abordion le commissariat sous de format de travail ce qui nous permettez à des problématique à partir desquelle nous nous mettion à rechercher dan le monde de au delà de nos propre connaissance et affinités cela nous permis le travail des artiste invités de façon plus détachée afin de créer la rencontre du moment où nous avon inauguré la rue moret en mar beaucoup de nos amis et amis se sont mobilisés et nous avon pu en une année seulement parfois être neuf à glassbox avec entre autre à cette époque sur des durées variable et à des intensités diverse agnez damien roger hugo fortin lucille de witte olivi rignault anna kereke pascale dassibat thurisset à la fois le moment le plus jouissif et le plus difficile que nous ayon dû traverser car chacun de nous devait tout à la fois trouver et se donner une la fluidité et la simplicité des relation pas toujour au rdv les années font suite à un véritable essor des run une sorte de boom de cf thèse de la sociologue severine marguin nous sention cette vague et cette énergie et nous rencontrion de jeune structure qui inventait de nouveaux mode comme par exemple plateforme dans le douzième arrondissement un espace mutualisé et loué par de très nombreux artiste plus vingtaine afin à la contribution somme la plus modique possible le contexte parisien pas évident et nous somme conscient eu la chance une structure historique avec au tout début le seul soutien financier de la drac nous avon assez vite tissés de très bon lien de confiance avec de nouveaux interlocuteur à la région ainsi que des partenaire privés et public qui nous ont permis de multiplié par quatre en quatre ans le budget de glassbox somme qui reste somme toute dérisoire porté en comparaison au budget de fonctionnement de quel petit centre également à cette époque que les grande fondation privée comme la fondation ricard carti et bien ont ouvert leurs propre espace et que le secteur privé prend une ampleur sans précédent en ayant leur espace à investir les fondation par là moin dan les structure indépendante comme par le passé avec les run cette époque et pour les subvention sont fléchées par les financeur sur le projet de ou une action aussi le difficile pour nous était de financer le lieu tous le monde étaient bénévole plus ou moins bien défrayés ce pourquoi nous dision non sans ironie que glassbox aurait toujour difficile de rester là où à un moment le professionnalisme appelle le salaire enceinte et sur le pont à de glassbox je souviens avoir envoyé les newsletters de avec mon compagnon qui avait cracké le réseau local et donc avant de décider à retourner dans mon sud natal deux ans plus tard au cours voyage par les eaux le long du danube je décide de trouver dans les pay que je traverse en république tchèque en autriche et en hongrie les run en hongrie se fut difficile et le dernier jour je trouve enfin un espace géré par des artiste il paraît alors évident que du moment où en trouve un sans être exhaustif il est beaucoup plus simple de trouver les autre en tant le type qui qui parle de la création actuelle et de ses possibilités de son contexte mon expérience à glassbox cet intérêt pour la plasticité nourrie par des modalités de travail renouvelées invités à en rechercher les lignes à était née une dizaine plus tard je à inaugur un nouvel espace projet dit run cet espace de hébergera les initiatives du laab et échotone est situé dan pay montpelliérain en terre cévenole un espace dédié à des résidence artistique axées sur la recherche et pouvant se déployer sur un temps long allant à trois ans vient du laab en le château éphémère nous propose une résidence et nous demande ce que nous souhaiterion en tant que résident aussi et alors que quitter glassbox était dans le carton des membre du laab qui déménageaient la perspective espace nous offrant une continuité était la solution la résidence comme un pie à terre en commun un endroit au sien duquel nous pouvion nous retrouver pour travailler la décision fut prise et nous devenion résident permanent du château éphémère fabrique sonore et numérique pour une durée de trois ans bien entendu il pas question de vivre sur pendant trois ans mais bien de travailler et exposer notre recherche ponctuellement au public à un format au public mis en par le château éphémère cela nous permis de retrouver les mêmes personne dans le temps sur voire des années et de construire ensemble un échange dans le temps sur une dynamique de recherche ce dernier aspect que je souhaite développer avec ce nouveau projet offrir au public amateur artiste et passionnés rencontre avec une recherche en train de se faire un moment de discussion et ouvert et inscrit sur une temporalité longue plus en adéquation avec la temporalité de la recherche et le déploiement intuition propre à je ressent la nécessité de du soin et de à la maturation du projet comme à sa réception trop souvent éphémère et ou frustrante pour et le public enfin lorsque parle de recherche de prime abord beaucoup ne pense la science également contribuer à démocratiser cet aspect du travail mené par un artiste le rendre accessible et dessiner les contours espace permettant de et de assez vite et dès la rédaction à neuf du texte de présentation des run dan nos échange avec nos différent interlocuteur comme la sociologue séverine marguin pour ce recherche sur les espace projet de paris et de berlin ou de la commissaire et chercheuse brésilienne fabiana de moraes sur les run du brésil je remettais chaque fois sur le tapis cette histoire run et comme si depuis tout ce temps et que en écrive mon implication dans la structuration espace épouse les contours volonté à voir naître ce que ce que je désire ce que je pense faut ce qui manque faudrait que je trouve et que je ne trouve pas ce moment là paraît impérieuse inévitable pour moi les run sont des espace plastique une œuvre à entière qui est performée collectivement dans le temps par des artiste aux mille visages artiste gestionnaire artiste curateur artiste technicien de surface artiste chargé de communication artiste artisan accompagnés invités ou artiste résident cette façon tous les rôles permet à certain artiste et de se réapproprier le champ de dans son ensemble retrouver du sen et certaine manière de le faire sien cela permet en adéquation avec une dynamique de recherche de ne pas mais tout au contraire et le temps à une pièce à plusieurs en cohérence avec son intuition issa sabrina artiste fondatrice de échotone et des initiatives et laab laboratoire associatif et de botanique de glassbox entre et', 'mare encourage la mobilité et la visibilité des artiste à travers des programme de résidence internationale le artiste sont accueillis en france à marseille et paris pour une durée qui varie entre et mois ce résidence sont dédiée à la recherche durant lesquelle un ensemble questionnent les problématique de sa démarche son vocabulaire plastique doit repenser ses projets affiner se problématique dans un cadre propice aux rencontre aux discussion le artiste invités proviennent de toute les région du monde avec la particularité de côtoyer dans leur vie ou leur travail un territoire de forte densité de population ou habitant dan une grande métropole un réseau est simultanément constitué afin de permettre à chaque résident de poursuivre la construction de son tissu artistique et social durant ce résidence est régulièrement par un ou plusieur intervenant afin de ré interroger sa pratique de plonger dans des analyse sémantique de sa démarche artistique de dégager de nouvelle piste de travail et son champ travers un travail de réflexion régulier nourrit de discussion souvent informelles invité pourra ainsi faire une pause dans sa production artistique pour repenser des concept qui alimentent se proposition plastique il ne sera pas question de produire une oeuvre en particulier ou des oeuvre déjà produite mais bien de sur la cohérence des concepts articulé par confronter de son travail passé et dégager des potentialités une du travail de résidence sera également dédié à la fabrication de tentatives de proposition des expérimentation tendant à éprouver les axes de recherche le valider ou les corriger enfin mare à développer de nouveaux modèles économique hybride permettant aux artiste de li leur domaines de compétence leur expertise à une activité économique il puissent bénéficier mare est une association française à non lucratif basée à marseille elle est fondée et dirigée par ronald reyes artiste visuel originaire du costa rica installé en france en en le programme de résidence croisées été déclaré culturel par le président et le ministre de la culture du costa rica créé en mare trouve son origine dans le projet artistique et la plateforme curatoriale imaginés par les artiste visuel et curateurs ron reyes sevilla costa rica et laurent le bourhis france où leur champ de réflexion et de recherche est de mare propose des dispositifs interconnectés chacun eux abordant des dimension politique sociale économique ou relationnelle où la relation au temp la transition de au travail la question de la satisfaction la valeur de la recherche et de la production les préoccupation environnementale le rôle des industry créative critique la production de connaissance interdisciplinaire le développement de pratique translocale les collaboration interculturelle et la construction de modèle économique alternatifs et hybrides entre autre sont abordés de manière transversale ce dispositifs explorent la complexité de artistique et accompagnent les de dan la construction position pertinente dan nos sociétés en mutation à dos mar nous développon des stratégies et les méthodologie mise en œuvre dans les dispositifs interconnectés que nous avon créés et qui ne cessent de aux contexte dans lesquels nous les exécuton de est notre terrain de recherche et là que nous prenon position en tant curateur citoyen pour proposer une vision singulière du monde travailler et interroger ce médium modifiera san aucun doute nous questionnon les changement qui ont surgi dans notre pratique du rôle des espace que nous avon créés de la de la technologie de la manière de concevoir la circulation des personnes des production et des concepts en période de forte instabilité politique sociale et économique la mission que la structure fixé est de repenser la pratique artistique de développer le réseau professionnel et critique de produire des connaissances interdisciplinaire de mettre en des pratique translocale le commone et les collaboration interculturelle et de mettre en des modèles économique alternatifs et hybrides oui comme les œuvre plus conventionnelle chaque proposition que nous appelon dispositif son propre cadre son propre statement sa propre fondation sa propre durée sa propre exposition son propre financement ses propre méthode de production son propre lieu etc chacun de ces dispositifs aborde un aspect spécifique du monde et occupe une position dans de et à dos mar nous les revendiquon comme des œuvre mares sont des dispositifs que nous menon en qualité ron reyes sevilla et laurent le bourhis constituent ce duo que nous avon nommé mare et qui depuis est aussi une entreprise culturelle basée à marseille nous metton en des action à locale régionale nationale et internationale en faveur du développement de artistique par des dispositifs axés sur la recherche en davantage que sur à dire sur tout ce qui précède et dépasse le seul moment de présentation publique de œuvres mare donc pas seulement un opérateur culturel ou plutôt son statut culturel est la réponse administratif et juridique aux modalités projet artistique singulier nous le considérons avant tout comme un terrain propice à de dispositifs un champ recouvert et alimenté par le champ de contemporain la mission que nous nous somme fixée pas de répondre à un marché ou de promouvoir telle activité mais de générer à travers des expérimentation épistémologique une réflexion sur de contemporain comment se acteur le perçoivent et participent à son évolution certain de ces dispositifs se déploient dans de petit espace sur une courte durée et engagent des bâtiments et des communautés sur plusieur années certains reçoivent des financement public ou privés tous dan le commone dos mares est un projet artistique co construit par deux artiste les démarche sont ancrées dans le champ de contemporain et portent sur de lui même le œuvre proposée par le duo prennent la forme de dispositifs dire qui engagent des protocoles des individus des espace une temporalité et trouvent leur résolution dan ce qui est produit en commun plutôt que des objet inerte mare et les dispositifs accueille pas de matérialité tangible il ne peut dans de que manière singulière habituellement génère un bénéfice de son activité de création de fabrication puis de vente en reproduisant ce cycle pour chaque œuvre dans une dynamique de croissance construite davantage sur la notoriété que sur de production ce modèle bien connu ne repose que sur la matérialité de qui permet son appropriation dans le cas projet artistique comme celui de dos mar qui ne peut être vendu faute de matérialité pourrait provenir cette rémunération cette question nous amené à envisager les relations avec son œuvre du point de vue de la dépendance financière du désintérêt du retour sur investissement ou de la subordination nous inviton donc dans le champ de et en qualité de matériaux de travail des termes et des modalités issus de il bien de considérer ce mécanisme entrepreneuriaux comme autant de matières première propice à de form économiques singulière comme artiste à produire des form plastique singulière le pas et de proposer de nouveaux modèles pour ou de sortir le artiste de leur précarité financière mais bien la relation œuvre artiste à partir point de vue économique depuis ses balbutiement en france dans les avecla galerie huit par des artiste paris pour objet de recenser et de cartographier des espace projet dans leur spécificités et leurs singularités respective outre la dimension réflexive et critique transdisciplinaire à apporter au projet nous envisageon de pouvoir y ajouter une dimension subjective ou expressive partir notamment de ce que les run ont dire même parce que chacune des structures porte en germe la réponse que les artiste élaborent face au contexte artistique au renouvellement des politiques et de du secteur culturel au cours de ces cinquante dernière la question des run est avant tout un phénomène social construit par ses propre acteur en par sabrina issa est hébergée run gange dan les cévenne']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_workshop_production_creation_research</t>
+          <t>1_new_gallery_run_program</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['workshop', 'production', 'creation', 'research', 'practice', 'association', 'different', 'artistic', 'create', 'open']</t>
+          <t>['new', 'gallery', 'run', 'program', 'event', 'international', 'support', 'zona', 'practice', 'year']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>['locate ancient fraternity historic centre cathedral limoge irresistible fraternity dedicate young creation design limoge welcome collection young designer plastic member association provide artistic direction study creation yocto develop cultural programming prioritise creation young person link design area life passage approach creation way live world complex matery hair premise include workshop occupy young designer architect serigraph plastic room hall dedicate reception event medium concert projection conference total independent studio guest room dedicate point house wide range allow delivery retirement storage time material equipment large scale installation look like new collective room hybrid house room social room', 'design offer visibility discipline live plastic promote sharing knowledge exchange artistic reflection meet time organize professional public public meeting allow question cross view experience research learning experimentation creation turn outside aim try local national cultural structure dissemination location equipment communication', 'suivre creation production dissemination dedicate educational cultural service addition propose visit conference meeting workshop enable public learn diversity current practice method intervention initiate modern involve creation line willingness discuss different field experience relate issue today range pedagogical structure technical studio workshop follow numerous promote cross section practice people invite emerge creation reflect modality reflect relation public workshop school environment intend experiment involved child adolescent adult creative process workshop true research lab point organization event dynamic rhythmful life area area means drawing drawing street']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>44</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1_gallery_berlin_open_young</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['gallery', 'berlin', 'open', 'young', 'locate', 'create', 'new', 'museum', 'giannozzo', 'sculpture']</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['gallery loulou lasard gallery kyra maralt archive gallery kyra legendary hour gallery loulou lasard gallery meet end year period run berlinian artistic landscape scene love scene crellestresse people face excited month small gallery studio ground steel like florian trümbach spend night refresh water e mail calla flower bull blood light han henny jahnnn mini piece direction bernd mottle heiner müller summure consequence novel berlin schöneberg merve verlag incarnation new artistic manifestation atmosphere people reflect flood internal variable culture dj club renew gallery carry intercultural promote young berlin combine painting photography sculpture performance european artistic position old east south america block remain connected year grow kyra maralt crellestrace', 'la gad private gallery subsidy sponsor gallery center marseille dynamic anarchic original gad laboratory experiment locate arnaud deschin apartment marseille architect design host develop way similar studio commercial aspect gallerist present strong curatorial role graduate marseille school arnaud deschin collaborate emerge establish world la gad curate marseille location present international aim gallery exhibit promote emerge group solo la gad wish surprise audience order create new encounter circulate new artistic landscape la gad mainly orient conceptual material story history white cube affirm newfound support figurative important turning point gallery la gad open new design fred pradeau question standardized arnaud deschin offer new creation major total piece host new team marseille current offer rent special accommodation spend night middle piece welcome lab', 'gallery tbilisi base gallery dedicate support promote young georgian found friend fellow colleague gvantsa jishkariani curator ellen kapanadze gallery conceive experimental profit choose vitrine underground passageway challenge accepted norm convention gallery permanent start large program soon establish georgian scene main destination discover exciting emmerge georgian provide support gallery organize solo act instigator gallery dedicate provide platform sort experimentation trial launch new dedicate experimental host variety creative limit field visual making gallery run gift shop collaborate produce limited edition item collaboration translate practice unexpected way result affordable unique find provide additional source income young contribute develop scene']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>39</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2_new_zona_event_gallery</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['new', 'zona', 'event', 'gallery', 'program', 'run', 'international', 'year', 'present', 'support']</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>['run gallery centre cardiff wale capital city organisation recently relocate narrow storey building originate expansive warehouse wide range programme major formal symposia experimental intimate event addition gallery programme offsite location individual organisation run wale resource programme warp open access resource training focus consciously program mix wale afield establish alongside emerge know focus experimentation risk aim provide opportunity showcase new rely sell organisation exist generous support council wale run wale support revenue agreement acw recognise beacon company award aim enable company organisation consistently create high quality achieve level excellence develop council currently provide organisation total cost remainder provide different trust organisation crucially input number volunteer warp programme generously support esmée fairbairn foundation establish incorporate run organisation heart cardiff gallery community resource found chris brown anthony shapland support numerous lifetime organise permanent white cube cardiff city centre offsite temporary venue include digital display board billboard shipping container warehouse shop unit start upstairs disuse room travel agent mill lane shapland grow bargoe live return study wale mid ninety rent floor run flat shower nearby empire pool provide shower eventually studio basic accommodation having tannery run london shapland keen wale realise potential city centre showing time involve deliver ffotogallery chris brown brown arrive wale start ma newport equally keen involve generate new interest young wale run parallel new find confidence welsh music film literature time centre visual open lot hope future jennie savage run skip zine bring writer ffresh atchapter open curate karen mackinnon cross section new produce time wale curate john hambley temporary jacobs market follow similar path hambley fine graduate cardiff officer arts council instrumental expand knowledge run practice council phenomenon initiate mean novel motivation ambition different varied output idea provide independent new way working acknowledge certain ideological belief self empower nature run shape culture willingness open change flexible adapt respond dominant political cultural trend ensure maintain key position mechanism artworld shapland brown start application develop idea mill lane impermanence building mind devise naming system incorporate change g gallery street number whichever build threat change formula stay finally support landlord time period rent free use negotiate exchange renovation modest grant enable start favour friend family develop link keen develop build wired plumb shoestring pistol open july curatorially bit free form signal ethos extend generosity trust help deliver high standard possible sustain mix wale act conduit afield open door policy focus dialogue plenty tea year fund way continue apply lottery funding involve set box tick hoop jump goalpost shift criterion application process application shape organisation board trustee register company ltd guarantee policy write set stone constitution mission statement draft suddenly permanent tangible thing shape answer lottery criterion shift political breeze lottery establish answerable measurable way distribute public money necessarily predicate quantity assessment quality certainly innovation risk time large lottery city centre visual close door month backlash acw lottery management considerable lottery funding year period organisation exist permanent state form filling quarterly report thankfully method funding end midnight day year relief end period short live application acw refuse organisation prepare close door building application return come natural end recognise impact officer emma geliot antony owen hicks council develop interim rescue package year later revenue client subsequently gain beacon status virtue survive long establishment history flexibility time crisis sense adaptability threat bureaucracy stagnation come bay grow time history christmas new year extend shop beneath link room floor provide office drilling start ground floor hatch cut reinforce concrete previously unseen cellar seal increase storage intermittent gallery negotiation start shop door sub let extra adjacent building small upstairs room high include cellar house gallery programme resource office barely inch waste building curate relatively awkward domestic sized challenge physical small size storey townhouse catchment far large encompass network group gallery actively involve clear attention network commitment present pioneering clear accessible manner generate sustain support visitor alike active curate internationally gallery act important showcase wale conduit afield shapland recently co curate flourish moravska galleries czech republic marek pokorny anima montreal key landmark wale organisation role bridge public key component curatorial rationale bring new audience provide need link cardiff artscene independent intermediary flexibility sense experimentation large establish readily maintain uk development studio model base socialist principle collectively good past alternative load anti establishment connotation mirror indie music label ethos zine culture date version world clear value draw black white blur ninety london lead bankroll dealer collector generate self fulfil prophecy gain kudo wealth assist emergence ybas recently run build commercial model structure participation fair certain role dealer represent boundary curator writer dealer fluid wale pressure motive different absence prominent economic driver run activity address issue cultural factor national identity sense peripheral schism cause language geographic boundary omnipresent counter willingness engage international level interesting tension pull forward pull tradition outset sense curatorial strategy address issue play key cultural role develop strong relationship wale act conduit essential understanding core mean engage create sense cohesion evolve parallel different way metropolitan counterpart', 'gallery centre photography charitable non profit run centre commit support multi faceted approach photography lens base medium found establish supportive environment development artistic practice gallery mandate provide context meaningful reflection dialogue photography gallery commit program reflect continuously change definition photography present wide range practice engage timely critical exploration medium public engagement education program production facility objective explore artistic cultural historic social political implication image expand visual world gallery found small group need production facility join share darkroom studio form collective important step facility affordable create supportive community common goal collective begin mount begin offer photography workshop gallery original location niagara street bathurst street production facility expand serve grow membership severe lack photographic education elementary secondary school gallery begin education school program gallery richmond st improve centre production facility widen audience centralized location main floor currently include administrative office main gallery adjacent vitrine gallery host seven annual member gallery exclusively showcase member gallery square foot accessible facility locate basement include darkroom shooting studio scan lab wide format digital printing print finishing area resource library production gallery highlight produce facility history gallery prioritize equitable access break barrier audience youth program outside downtown core collaborate numerous community partner outside sector support artistic experimentation risk taking provide accessible public program production support emerge practitioner diverse young people gta gallery partner include imaginenative image festival scotiabank contact photography festival toronto district school board ocad university trinity square video nia centre tangle disability gallery continue develop evolve remain committed history run centre relate foster collaborative decision making sharing leadership role retain spirit run centre member board staff develop implement program highlight unique artistic practice engage wide audience increase access understanding image base practice gallery support member affordable access analogue digital facility professional development opportunity include conceptual technical workshop portfolio review mentorship gallery continue serve important role large community support emerge annual program proof outreach darkroom club cameralink camerareach canadian international curator dynamic residency diverse audience public program talk tour discussion screening write group performance writer stage career vital prolific publishing program gallery center programming area offer affordable production facility member include darkroom digital printing ensure diverse medium accessible experiment develop photo base similarly accessible gallery present dynamic reflect range issue visual form mentor focus institution curator focus maintain collaborative approach play central active role shape programming support artistic development dedicate significant portion programming calendar year focus emerge longstanding program proof cameralink provide cusp exploration widen dialogue equally important mandate provide production mentorship scholarship opportunity youth gta gallery outreach program example offer photography workshop youth underserved community unique program inspire youth develop positive method share story initiate critical exploration view making run centre canada provide ongoing hand education youth award win education program encourage great visual literacy foster new generation', 'found florence zona represent unique example internationally recognize non profit run situate historic quarter san niccolò zona involvement experimental movement multimedia concrete poetry conceptual performance contrast everyday life accordance mission o interdisciplinary international level zona program seek crossover experimental visual music architecture poetry aim overcome traditional border discipline achieve radical anti academic organization confrontation audience unusual insight multifaceted experiment experience anticipate development visual zona activity include event zona publication edition zonaradio online broadcast new music sound zona people form flexible collective long term programming flexibility important financial support private sponsor public institution zona program completely self finance member zona build international network promote new movement open possibility global exchange critic public organization nonprofit zona found organize musician poet architect live creation global network interdisciplinary practice international experimental avant garde movement film video conceptual fluxus performance concrete sound poetry radical architecture book small press audiowork zona archive zona archives editions zona non profit zona archive florenceby maurizio nannucci zona create need desire group young infiltrate florence city environment historically inclined maintain status quo tradition open change profound knowledge city social political cultural economic mechanism extraordinary significance run zona collective represent appreciate huge international resistance establishment gallery great power acquire militant criticism result claim autonomy undertake create strategic alternative circuit provide direct link medium modify social status culture environment having abandon inspire utopia transparent independent operation run adopt walter benjamin idea reproducibility marshall mcluhan concept electronic multimedia form aim eliminate traditional qualitative parameter adopt new form anti conformist behavior transform role society zona found nonprofitorganization run architect musician live florence tuscany maurizio nannucci paolo masi mario mariotti giuseppe chiari massimo nannucci alberto moretti alberto mayr gianni pettena san niccolò inside historical city center founding zona period great upheaval small group people great vision high level professionalism undertake bring cultural scene florence world visa versa zona gallery schema area centro di publishing company video create tape edizioni exempla initiative help bring period extreme cultural ferment city drive energy new generation zona programfrom begin zona collective decide information program decide factor identity activity individual self conceit self reflect narcissism strategy open exchange international world mean different culture experimental operative method zona collective action zona carefully cultivate network contact share experience different discipline tendency emerge field purpose zona people engage zona receive financial remuneration programmatic decision member zona reinforce definition integrated body collective confrontation different discipline personality drive force contribute identity zona organization non hierarchical lead democratic idea production inhomogeneous contradictory varied articulate diffuse noisy non identifiable traditional term value expectation autonomy independencezona connection local public governmental institution characterize operative independence autonomy rarely possible present florence devote book performance zona differentiate cultural institution responsive sudden change world quickly internationally recognize preferred channel artistic activity especially compare lethargy indifference local institution zona pure cultural concept multilingual multi ethnic composition shared transitory shelter thesteppe haven desert like nomad explorer momentarily find hospitality feel welcome choice precarious semi clandestine conscious feel necessary ignore certainty try test method communication choice entail certain difficulty term organization run financial concern necessary find approximately year support general expense spite precarious financial situation thank agile flexible structure dense network contact zona able realize event concert performance installation lecture video film program receive international acclaim establish zona reputation international circuit beginning share experiencesthe event officially inaugurate conoscenza enquiry different discipline active florence tuscany sort know lose local impulse subsequently regionalism nationalism series day performance film installation contribution luciano bartolini lapo binazzi ufo mario borillo lino centi giuseppe chiari andrea daninos bruno gambone andrea granchi ketty la rocca auro lecci mario mariotti paolo masi gianni melotti verita monselle alberto moretti massimo nannucci maurizio nannucci adolfo natalini superstudio bill viola zona inaugural event conoscenza create basic formula event aroma include carlo bertocci fabrizio corneli luciana majoni monica sarsini marino paradigmatic event monografie curate mario mariotti practitioner assume different artistic role lapo binazzi julien blaine corrado costa mario guaraldi paolo masi massimo nannucci maurizio nannucci fulvio salvadori etc series event allow participant express individually group artistic practice range editor architect musician collector craftsman collective publishing extended communication event feature local series manifestation follow zona able demonstrate role catalyst wide range experience international event perfect example small press scene curate maurizio nannucci devoted medium gather small press magazine dedicate experimental visual concrete poetry architecture new music agentzia ana excetera ant farm approche archigram language rite asa axe azimuth coracle press simon cutts exempla fluxus fox futura geiger giorno poetry system integration hermann de vries la mamelle nul le petit colosse de simi daniel spoerri poor old tired horse ian hamilton finlay robho dieter rot schema informazione stereo headphone tarasque press tau ma vou zaj etc presentation artistic production tie intermedia phenomenon start time feel need release production object wish address interest concern relate disciplinary category open artistic research possibility experimentation small press material today constitute consistent aspect zona archives grow consistently contain title initiative continue series magazine editor presentation oolp luigi ballerini mario diacono baobab geiger adriano spatola fox joseph kosuth mèla maurizio nannucci book ulysse carrion file general uta brande michael erlhoff pim jeffrey isaac aut catalano maurizio benveduti aeiuo bruno corà impulse elton garnet giorno poetry system john giorno small press scene hour nonstop event alternative information small press june worth mention british small press book fair zona dedicate activity small press britain present magazine include ian hamilton finlay archigram edit peter cook inbound outbound content send directly zona solicit participation world particular attention east europe country south america japan australia audiowork zona radio maurizio nannuccci start fonoteca collection record cassette audiowork sound poetry previously unpublished original recording sound installation zona time later travel museum france austria mexico year albert mayr suono ambiente festival increase awareness sound provide information relate event different world festival venue florence concert musical action beth andersen cornelius cardew giancarlo cardini richard hyman alvin lucier e suono review dedicate meeting author musical poetry phonetic researcher consider like manifestation progress open contribution ulysses carrion henry chopin john giorno sten hanson bernard heidsieck isidor isou ferdinand kriwet robert lax maurice lemaitre maurizio nannucci diter rot mimmo rotella gerhard rühm sarkis adriano spatola present zona organize attendance author brion gysin ernst jandl friederike mayröcker emmett contribution great understanding awareness form sound research come creation zonaradio zonaradio continue kind research sound zona event cycle radiophonic transmission invitation florence broadcasting station controradio foreign station netherlands canada germany sweden period month maurizio nannucci albert mayr broadcast interview recording sound material vito acconci laurie anderson robert barry joseph beuy john cage philip corner coum transmission antonio dias brian eno philip glass jack goldstein dick higgins robert lax albert mayr maurizio nannucci michael snow keith sonnier ben vautier lawrence weiner approach attempt distance traditional broadcasting adopt editorial method distort meaning transmit emphasize cognitive approach suit medium radio special emmission zonaradio create connection ar electronica festival linz invitiation controradio zonaradio event broadcast new audio material yves bouliane logo gent giuseppe chiari steve piccolo bill viola marino vismara create solo installation performance concert produce zona music realize palazzo vegni florence albert mayr invite protagonist experimental music animate zona musica festival day different indoor outdoor venue city zona international network connection peripheral mainstream world lead iceland include fridrik thor fridriksson margrét jonsdottir steingrimur eyfjörd kristmundsson magnus palsson bjarni thorarinsson presentation icelandic include artwork film book document forefront dialogue june zona brasil manifestation cildo meirele iole de freita carmela gross present zona personal connection canadian lead series intervention general idea glenn lewis ian murray michael snow vincent tresov bill vazan zona link closely magazine document include parachute impulse impression fuse parallelogramme file involve information exchange nonprofitspace metropole toronto western vancouver march franklin furnace director martha wilson lecture zona discuss alternative archive new york focus particularly franklin furnace archive purchase museum modern new york genève curate marino vismara include françoise bridel vivianne van singer jean stern anne sauser hall group young geneva involve furor theory magazine organize result exchange swiss run geneva ecart gaetan centre contemporain july curate maurizio nannucci judith blackall time european exploration australian scene variety medium participation include julie brown juan davila john nixon jill orr imant tiller jenny watson zona present video feature production berlin great britain america box sheila klein gail maccall accomplish collaboration studio alchymia italian design studio guerrilla girl present leaflet document political action discrimination woman world distribution circulation information zona collect information exhibiton trace visual significant development result zona policy evening limit event time require possible extremely dynamic sharp contrast established florence reactive responsive new artistic realize solo event alighiero boetti james lee byars sarah charlesworth james coleman peter downsbrough terry fox general idea jeffrey isaac joseph kosuth mario merz steve piccolo bill viola follow style exhibiton integrate thematic context group hold giuseppe chiari fabrizio corneli mario mariotti paolo masi alberto moretti massimo nannucci maurizio nannucci marino vismara steve piccolo bass player musical group lounge lizard particularly notable intervention demos maurizio nannucci le pietre graffiate performance piero pelù lead singer florentine rock group litfiba vivita gallery opening party nannucci solo sala palazzo vecchio february magazzini criminali marion sandro lombardi federico tiezzi invade zona series theatrical event entitle ii carrozzone performance homage ketty la rocca gianni melotti verita monselle fulvio salvadori present zona mario merz alighiero boetti correspond open zona lent series gallery gallery gallerist involve zona event franco toselli milan gallery merz massimo minini brescia boetti follow lucio amelio napolitan gallery present ernesto zona francoise lambert milan alberto materia exploration lanfranco baldi carlo bertocci paolo masi poetry material image book critical article sampling edition donate european american series zona critica march june theoretical information artwork document series situation new critical field event characterize beginning italy critic invite rossella bonfiglioli laura cherubini massimo carboni maria luisa frisa elio grazioli flaminio gualdoni ida panicelli demetrio paparoni loredana parmesani sandro sproccati barbara tosi giorgio verzotti ask intervene zona direct intermediary critic cultural precursor similar manifestation cross disciplineszona architettura corretta londinese curate gianni pettena british council architectural association london cooperation propose weekly basis overview emerge school london young architect approach practice research environment physical john andrews nigel coats christopher harding antonio lagarto jenny löwe john ryba trisha pringle peter wilson follow installation produce carry situ interpretation zona installation post conceptual spatial language far purely graphic representation real construction intervention act reference previous architect lapo binazzi ufo michele de lucchi cavart ugo la pietra adolfo natalini superstudio gianni pettena architettura radicale group gianni pettena organize theatrium artium review international architect plan number pavilion amphitheatre cascine park occasion inauguration istituto patafisico proto istituto alternativo zona document edition college de pataphisique italy time zonapatafisica curate maurizio nannucci thierry foulc present material college de pataphisique archive publication book magazine card booklet antonin artaud jean dubuffet marcel duchamp max ernst lucio fontana alfred jarry raymond queneau man ray year centre george pompidou paris maurizio nannucci curate gather material relate situationism year creation zona internationale situationniste present magazine book film original article write protagonist relate material europe kind free consulting library opening memorable unexpected presence guy zona invitation postcard december maurizio nannucci ask pier luigi tazzi luciano bartolini carry critical enquiry unusual subject invitation card invitation card send gallery museum send series category propose presentation thousand example collect exempla archive creative original element use send message document zona film video multimedia turn cinema projection film zona film international festival organize maurizio nannucci andrea granchi month day projection monographic evening joseph beuy mari boyen marcel broothaer antonio dia herbert distel terry fox dan graham gordon matta clark alberto moretti massimo nannucci bruce nauman dennis oppenheim luca patella angela ricci lucchi yervant gianikian franco vaccari film australia festival present parallel dedicate new scene continent bill viola video installation vapore present time contribute activity tape create maria gloria bicocchi collaborate bicocchi zona organize meeting vito acconci daniel buren buckminster fuller tadeusz kantor live theatre video arte gran bretagne complete video film gilbert george realize assistence british council present zona collective member frequently invite produce public institution museum rework extend initiative create san niccolò simply propose collaboration archive venice biennale moderna museetin stockholm small press sceneexhibition city florence formato book dav archive documentazione arti visive create maurizio nannucci city florence collaboration realize paris padiglione contemporanea milan centre george pompidou bibliothèque nationalein paris cent livre italien moma new york frankfurter kunstverein british council london rai rome zona archivesestablishe zona archive time start editorial activity important material add archive today material collect include small press collection book thousand book audiowork record tape new music thousand item audiowork poet concrete poetry collection thousand document exempla archive material merge zona simply collect release information autonomous editorial activity zona edition limit publication catalogue book zona event produce continue record book edition multiple paul armand gette john armleder luciano bartolini claude closky robert filliou rainer ganahl general idea john giorno ian hamilton finlay dick higgins joseph kosuth robert lax james lee byars sol lewitt paolo masi jonathan monk olivi mosset massimo nannucci maurizio nannucci carsten nicolai john nixon marco fusinato yoko ono michael snow rirkrit tiravanija lawrence weiner heimo zobernig run san nicolò close zona activity continue archive organization external event zona secret event daniel buren terry fox general idea ian hamilton finlay jenny holzer barbara kruger james lee byars maurizio nannucci lawrence weiner etc invite intervene different florence hidden clandestine presence voluntarily conceal search help insufficient clue zona archive regularly supply material document institution request zona produce event photograph john baldessari christian boltanski luciano fabro fischli weiss dan graham jenny holzer barbara kruger ed ruscha cindy sherman etc archivio storico marciana isola bookform organize maurizio nannucci pier luigi tazzi alvar aalto museum pori museum finland curate maurizio nannucci maison du livre de et du son villeurbanne lyon bookmaker limoge murs de son villa arson nice time sound archive audiowork zona villa arson nice école des beaux arts bourge kunstmuseum bregenz palazzo delle papesse siena nannucci curate exhibitionzona people mamco centre contemporain geneva zona objective celebrate particular moment activity attention concentrate communication information recording event organization different remit constraint able record continuity commitment zona allow explore area possible research formulate new model artistic methodology behavior precisely term continuity attention immediate reception event forget official artistic channel zona build identity small great idea zonaand collective sphere international communication network strongly characterize ideological problematic artistic non artistic question communication reciprocal base elaboration way assumption non participation delay communication autism provincialism capacity potential receive zona unique position zona venue numerous strategic point florence communicative centralization minimum marginal sign member zona collective decide bring end activity group result decision close san niccolò open new chapter story continue people event page dedicate memory nostalgia bear witness conscious decision gentle intense experience path possibly today reason experience dedicate single world especially people share want live today']</t>
         </is>
